--- a/src/main/resources/static/template/允许上传的证件照列表模板.xlsx
+++ b/src/main/resources/static/template/允许上传的证件照列表模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiqin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\yiliao_njk\certificate\src\main\resources\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,9 +36,6 @@
     <t>证书编号</t>
   </si>
   <si>
-    <t>身份证号</t>
-  </si>
-  <si>
     <t>证书名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -67,10 +64,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
-  </si>
-  <si>
     <t>13711111111</t>
+  </si>
+  <si>
+    <t>电话（文本格式）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号（文本格式）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,7 +481,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,19 +508,19 @@
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -526,19 +528,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="7">
         <v>43951</v>

--- a/src/main/resources/static/template/允许上传的证件照列表模板.xlsx
+++ b/src/main/resources/static/template/允许上传的证件照列表模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\yiliao_njk\certificate\src\main\resources\static\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiqin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -40,12 +40,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>开始日期</t>
-  </si>
-  <si>
-    <t>结束日期</t>
-  </si>
-  <si>
     <t>420621199110138021</t>
   </si>
   <si>
@@ -73,6 +67,17 @@
   <si>
     <t>身份证号（文本格式）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期(yyyy.MM.dd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期(yyyy.MM.dd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01.01</t>
   </si>
 </sst>
 </file>
@@ -184,11 +189,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +486,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,7 +495,8 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.625" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,22 +511,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -528,27 +534,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7">
-        <v>43951</v>
-      </c>
-      <c r="H2" s="7">
-        <v>43960</v>
-      </c>
-      <c r="I2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7">
         <v>1</v>
       </c>
     </row>
